--- a/public/document/testimport.xlsx
+++ b/public/document/testimport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giwu Music\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,108 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bake </t>
-  </si>
-  <si>
-    <t>test@exel.com</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>twoQ</t>
-  </si>
-  <si>
-    <t>onenn</t>
-  </si>
-  <si>
-    <t>twohh</t>
-  </si>
-  <si>
-    <t>onem</t>
-  </si>
-  <si>
-    <t>twov</t>
-  </si>
-  <si>
-    <t>onea</t>
-  </si>
-  <si>
-    <t>onex</t>
-  </si>
-  <si>
-    <t>Eleved</t>
-  </si>
-  <si>
-    <t>Eleveb</t>
-  </si>
-  <si>
-    <t>Eleveo</t>
-  </si>
-  <si>
-    <t>Elevep</t>
-  </si>
-  <si>
-    <t>Elevec</t>
-  </si>
-  <si>
-    <t>Elever</t>
-  </si>
-  <si>
-    <t>Elevett</t>
-  </si>
-  <si>
-    <t>Elevelk</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>2000-08-08</t>
-  </si>
-  <si>
-    <t>2000-08-09</t>
-  </si>
-  <si>
-    <t>2000-08-10</t>
-  </si>
-  <si>
-    <t>2000-08-11</t>
-  </si>
-  <si>
-    <t>2000-08-12</t>
-  </si>
-  <si>
-    <t>2000-08-13</t>
-  </si>
-  <si>
-    <t>2000-08-14</t>
-  </si>
-  <si>
-    <t>2000-08-15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>MATRICULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE NAISSANCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUTEUR </t>
+  </si>
+  <si>
+    <t>TELEPHONE</t>
+  </si>
+  <si>
+    <t>SEXE (M/F)</t>
+  </si>
+  <si>
+    <t>EMAIL DU TUTEUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,17 +80,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,237 +403,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>12235</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>9887448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>12236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>9887449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>9887450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>12238</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>9887451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>12239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>9887452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>9887453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>12241</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>9887454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>12242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>9887455</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="G2" r:id="rId7"/>
-    <hyperlink ref="G1" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>